--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2454.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2454.xlsx
@@ -354,7 +354,7 @@
         <v>2.346282037830552</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.817102033619646</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2454.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2454.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.073457577612281</v>
+        <v>1.707324028015137</v>
       </c>
       <c r="B1">
-        <v>2.346282037830552</v>
+        <v>1.891999006271362</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.26327657699585</v>
       </c>
       <c r="D1">
-        <v>2.817102033619646</v>
+        <v>3.560611724853516</v>
       </c>
       <c r="E1">
-        <v>0.9654783765476934</v>
+        <v>1.977408170700073</v>
       </c>
     </row>
   </sheetData>
